--- a/lab1/report stuff/experiment1Data.xlsx
+++ b/lab1/report stuff/experiment1Data.xlsx
@@ -774,6 +774,9 @@
           <c:tx>
             <c:v>Theoretical</c:v>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>experiment1Data.csv!$A$2:$A$102</c:f>
@@ -1408,11 +1411,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2141796840"/>
-        <c:axId val="2141795416"/>
+        <c:axId val="-2092428856"/>
+        <c:axId val="-2092423448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2141796840"/>
+        <c:axId val="-2092428856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1441,12 +1444,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141795416"/>
+        <c:crossAx val="-2092423448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2141795416"/>
+        <c:axId val="-2092423448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1477,7 +1480,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141796840"/>
+        <c:crossAx val="-2092428856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
